--- a/probAggApproaches.xlsx
+++ b/probAggApproaches.xlsx
@@ -339,12 +339,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -353,9 +347,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
@@ -367,6 +358,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -690,28 +690,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="9" t="s">
+      <c r="J1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9"/>
+      <c r="K1" s="25"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -792,7 +792,7 @@
         <v>0.2</v>
       </c>
       <c r="M5" s="3">
-        <f t="shared" ref="M5:M29" si="0">(J5+K5)/2</f>
+        <f t="shared" ref="M5:M24" si="0">(J5+K5)/2</f>
         <v>0.17142857142857143</v>
       </c>
     </row>
@@ -1200,7 +1200,7 @@
       </c>
       <c r="K26" s="1"/>
       <c r="M26" s="3">
-        <f t="shared" ref="M26:M30" si="1">(J26+K26)/2</f>
+        <f t="shared" ref="M26:M28" si="1">(J26+K26)/2</f>
         <v>0</v>
       </c>
     </row>
@@ -1331,7 +1331,7 @@
   <dimension ref="C7:W22"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="X16" sqref="X16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1341,294 +1341,294 @@
   </cols>
   <sheetData>
     <row r="7" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C7" s="14"/>
-      <c r="D7" s="16" t="s">
+      <c r="C7" s="12"/>
+      <c r="D7" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="16"/>
-      <c r="F7" s="16"/>
-      <c r="G7" s="16"/>
-      <c r="H7" s="16"/>
-      <c r="I7" s="16" t="s">
+      <c r="E7" s="27"/>
+      <c r="F7" s="27"/>
+      <c r="G7" s="27"/>
+      <c r="H7" s="27"/>
+      <c r="I7" s="27" t="s">
         <v>32</v>
       </c>
-      <c r="J7" s="16"/>
-      <c r="K7" s="16"/>
-      <c r="L7" s="16"/>
-      <c r="M7" s="16"/>
-      <c r="N7" s="16" t="s">
+      <c r="J7" s="27"/>
+      <c r="K7" s="27"/>
+      <c r="L7" s="27"/>
+      <c r="M7" s="27"/>
+      <c r="N7" s="27" t="s">
         <v>34</v>
       </c>
-      <c r="O7" s="16"/>
-      <c r="P7" s="16"/>
-      <c r="Q7" s="16"/>
-      <c r="R7" s="16"/>
-      <c r="S7" s="16" t="s">
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="27"/>
+      <c r="S7" s="27" t="s">
         <v>33</v>
       </c>
-      <c r="T7" s="16"/>
-      <c r="U7" s="16"/>
-      <c r="V7" s="16"/>
-      <c r="W7" s="16"/>
+      <c r="T7" s="27"/>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="W7" s="27"/>
     </row>
     <row r="8" spans="3:23" x14ac:dyDescent="0.25">
-      <c r="C8" s="17" t="s">
+      <c r="C8" s="14" t="s">
         <v>25</v>
       </c>
-      <c r="D8" s="15">
-        <v>1</v>
-      </c>
-      <c r="E8" s="15">
-        <v>2</v>
-      </c>
-      <c r="F8" s="15">
+      <c r="D8" s="13">
+        <v>1</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2</v>
+      </c>
+      <c r="F8" s="13">
         <v>3</v>
       </c>
-      <c r="G8" s="15">
-        <v>4</v>
-      </c>
-      <c r="H8" s="15">
-        <v>5</v>
-      </c>
-      <c r="I8" s="15">
-        <v>1</v>
-      </c>
-      <c r="J8" s="15">
-        <v>2</v>
-      </c>
-      <c r="K8" s="15">
+      <c r="G8" s="13">
+        <v>4</v>
+      </c>
+      <c r="H8" s="13">
+        <v>5</v>
+      </c>
+      <c r="I8" s="13">
+        <v>1</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2</v>
+      </c>
+      <c r="K8" s="13">
         <v>3</v>
       </c>
-      <c r="L8" s="15">
-        <v>4</v>
-      </c>
-      <c r="M8" s="15">
-        <v>5</v>
-      </c>
-      <c r="N8" s="15">
-        <v>1</v>
-      </c>
-      <c r="O8" s="15">
-        <v>2</v>
-      </c>
-      <c r="P8" s="15">
+      <c r="L8" s="13">
+        <v>4</v>
+      </c>
+      <c r="M8" s="13">
+        <v>5</v>
+      </c>
+      <c r="N8" s="13">
+        <v>1</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2</v>
+      </c>
+      <c r="P8" s="13">
         <v>3</v>
       </c>
-      <c r="Q8" s="15">
-        <v>4</v>
-      </c>
-      <c r="R8" s="15">
-        <v>5</v>
-      </c>
-      <c r="S8" s="15">
-        <v>1</v>
-      </c>
-      <c r="T8" s="15">
-        <v>2</v>
-      </c>
-      <c r="U8" s="15">
+      <c r="Q8" s="13">
+        <v>4</v>
+      </c>
+      <c r="R8" s="13">
+        <v>5</v>
+      </c>
+      <c r="S8" s="13">
+        <v>1</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2</v>
+      </c>
+      <c r="U8" s="13">
         <v>3</v>
       </c>
-      <c r="V8" s="15">
-        <v>4</v>
-      </c>
-      <c r="W8" s="15">
+      <c r="V8" s="13">
+        <v>4</v>
+      </c>
+      <c r="W8" s="13">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C9" s="17" t="s">
+      <c r="C9" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="D9" s="19" t="s">
+      <c r="D9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="F9" s="20" t="s">
+      <c r="E9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="F9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="G9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="H9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="I9" s="19" t="s">
+      <c r="G9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" s="16" t="s">
         <v>28</v>
       </c>
-      <c r="J9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="K9" s="20" t="s">
+      <c r="J9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="K9" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="L9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="M9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="N9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="O9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="P9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="R9" s="21" t="s">
-        <v>27</v>
-      </c>
-      <c r="S9" s="19" t="s">
-        <v>27</v>
-      </c>
-      <c r="T9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="U9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="V9" s="20" t="s">
-        <v>27</v>
-      </c>
-      <c r="W9" s="21" t="s">
+      <c r="L9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="M9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="N9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="O9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="P9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="R9" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="S9" s="16" t="s">
+        <v>27</v>
+      </c>
+      <c r="T9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="U9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V9" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="W9" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="10" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C10" s="17" t="s">
+      <c r="C10" s="14" t="s">
         <v>30</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="F10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="G10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="H10" s="24" t="s">
+      <c r="D10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="I10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="J10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="K10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="L10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="M10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="N10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="O10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="P10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="R10" s="24" t="s">
-        <v>27</v>
-      </c>
-      <c r="S10" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="T10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="U10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="V10" s="23" t="s">
-        <v>27</v>
-      </c>
-      <c r="W10" s="24" t="s">
+      <c r="I10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="J10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="K10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="L10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="M10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="O10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="P10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="R10" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="S10" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="T10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="U10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="V10" s="20" t="s">
+        <v>27</v>
+      </c>
+      <c r="W10" s="21" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="11" spans="3:23" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="C11" s="18" t="s">
+      <c r="C11" s="15" t="s">
         <v>31</v>
       </c>
-      <c r="D11" s="25" t="s">
+      <c r="D11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="26" t="s">
+      <c r="E11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="G11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="H11" s="27" t="s">
+      <c r="F11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="G11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="I11" s="25" t="s">
-        <v>27</v>
-      </c>
-      <c r="J11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="K11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="L11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="M11" s="27" t="s">
-        <v>27</v>
-      </c>
-      <c r="N11" s="25" t="s">
+      <c r="I11" s="22" t="s">
+        <v>27</v>
+      </c>
+      <c r="J11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="L11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>27</v>
+      </c>
+      <c r="N11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="O11" s="26" t="s">
+      <c r="O11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="P11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="Q11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="R11" s="27" t="s">
+      <c r="P11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="R11" s="24" t="s">
         <v>28</v>
       </c>
-      <c r="S11" s="25" t="s">
+      <c r="S11" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="T11" s="26" t="s">
+      <c r="T11" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="U11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="V11" s="26" t="s">
-        <v>27</v>
-      </c>
-      <c r="W11" s="27" t="s">
-        <v>28</v>
+      <c r="U11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="V11" s="23" t="s">
+        <v>27</v>
+      </c>
+      <c r="W11" s="19" t="s">
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="3:23" x14ac:dyDescent="0.25">
@@ -1644,19 +1644,19 @@
       <c r="C17" t="s">
         <v>35</v>
       </c>
-      <c r="D17" s="15">
-        <v>1</v>
-      </c>
-      <c r="E17" s="15">
-        <v>2</v>
-      </c>
-      <c r="F17" s="15">
+      <c r="D17" s="13">
+        <v>1</v>
+      </c>
+      <c r="E17" s="13">
+        <v>2</v>
+      </c>
+      <c r="F17" s="13">
         <v>3</v>
       </c>
-      <c r="G17" s="15">
-        <v>4</v>
-      </c>
-      <c r="H17" s="15">
+      <c r="G17" s="13">
+        <v>4</v>
+      </c>
+      <c r="H17" s="13">
         <v>5</v>
       </c>
     </row>
@@ -1664,40 +1664,40 @@
       <c r="C18">
         <v>1</v>
       </c>
-      <c r="D18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H18" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="I18" s="12"/>
+      <c r="D18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="I18" s="10"/>
     </row>
     <row r="19" spans="3:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C19">
         <v>2</v>
       </c>
-      <c r="D19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G19" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H19" s="22" t="s">
+      <c r="D19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1705,19 +1705,19 @@
       <c r="C20">
         <v>3</v>
       </c>
-      <c r="D20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G20" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H20" s="22" t="s">
+      <c r="D20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1725,40 +1725,40 @@
       <c r="C21">
         <v>4</v>
       </c>
-      <c r="D21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H21" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="L21" s="12"/>
+      <c r="D21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="L21" s="10"/>
     </row>
     <row r="22" spans="3:12" ht="16.5" x14ac:dyDescent="0.25">
       <c r="C22">
         <v>5</v>
       </c>
-      <c r="D22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="E22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="F22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="G22" s="22" t="s">
-        <v>27</v>
-      </c>
-      <c r="H22" s="22" t="s">
+      <c r="D22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="F22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="G22" s="19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" s="19" t="s">
         <v>27</v>
       </c>
     </row>
@@ -1789,36 +1789,36 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D1" s="10"/>
-      <c r="E1" s="10"/>
-      <c r="F1" s="10"/>
-      <c r="G1" s="10"/>
-      <c r="H1" s="10"/>
-      <c r="I1" s="10"/>
-      <c r="J1" s="9" t="s">
+      <c r="D1" s="8"/>
+      <c r="E1" s="8"/>
+      <c r="F1" s="8"/>
+      <c r="G1" s="8"/>
+      <c r="H1" s="8"/>
+      <c r="I1" s="8"/>
+      <c r="J1" s="25" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="9"/>
-      <c r="L1" s="10"/>
-      <c r="M1" s="10"/>
+      <c r="K1" s="25"/>
+      <c r="L1" s="8"/>
+      <c r="M1" s="8"/>
     </row>
     <row r="2" spans="4:19" x14ac:dyDescent="0.25">
-      <c r="D2" s="9" t="s">
+      <c r="D2" s="25" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="9"/>
-      <c r="F2" s="9"/>
-      <c r="G2" s="9"/>
-      <c r="H2" s="9"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10" t="s">
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="25"/>
+      <c r="I2" s="8"/>
+      <c r="J2" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="K2" s="10" t="s">
+      <c r="K2" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10" t="s">
+      <c r="L2" s="8"/>
+      <c r="M2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -2464,19 +2464,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -3149,19 +3149,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -3810,19 +3810,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -4380,19 +4380,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -4968,19 +4968,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -5573,19 +5573,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="J1" s="8" t="s">
+      <c r="J1" s="26" t="s">
         <v>11</v>
       </c>
-      <c r="K1" s="8"/>
+      <c r="K1" s="26"/>
     </row>
     <row r="2" spans="4:13" x14ac:dyDescent="0.25">
-      <c r="D2" s="8" t="s">
+      <c r="D2" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="26"/>
+      <c r="H2" s="26"/>
       <c r="J2" t="s">
         <v>7</v>
       </c>
@@ -6163,7 +6163,7 @@
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="T30" s="11"/>
+      <c r="T30" s="9"/>
     </row>
     <row r="31" spans="4:20" x14ac:dyDescent="0.25">
       <c r="D31" s="7"/>
@@ -6243,13 +6243,13 @@
       <c r="C1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="26" t="s">
         <v>10</v>
       </c>
-      <c r="E1" s="8"/>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8"/>
-      <c r="H1" s="8"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
       <c r="J1" t="s">
         <v>12</v>
       </c>
@@ -6430,7 +6430,7 @@
       <c r="H8" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J8" s="13" t="s">
+      <c r="J8" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K8" s="7" t="s">
@@ -6480,7 +6480,7 @@
       <c r="H10" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="J10" s="13" t="s">
+      <c r="J10" s="11" t="s">
         <v>17</v>
       </c>
       <c r="K10" s="7" t="s">
